--- a/data/dataframe/10041.xlsx
+++ b/data/dataframe/10041.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/DataFiles/idis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8F5C22-994F-A143-9623-C3E75E0FF620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D5BD85-1F55-8C44-B632-06D79A101FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36720" yWindow="2700" windowWidth="28800" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Seely_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="format" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -57,9 +57,6 @@
     <t>COU</t>
   </si>
   <si>
-    <t>col</t>
-  </si>
-  <si>
     <t>JLab Hall C (E03-103)</t>
   </si>
   <si>
@@ -99,7 +96,10 @@
     <t>Elab</t>
   </si>
   <si>
-    <t>sigh/sigd</t>
+    <t>sig_r</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,10 +468,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>3</v>
@@ -501,24 +501,24 @@
         <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>5.7670000000000003</v>
@@ -533,16 +533,16 @@
         <v>6.8373999999999997</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2">
         <v>0.97740000000000005</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>5.7670000000000003</v>
@@ -585,16 +585,16 @@
         <v>6.5365000000000002</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2">
         <v>0.97629999999999995</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>5.7670000000000003</v>
@@ -637,16 +637,16 @@
         <v>6.2439999999999998</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2">
         <v>0.97960000000000003</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>5.7670000000000003</v>
@@ -689,16 +689,16 @@
         <v>5.9593999999999996</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2">
         <v>0.96840000000000004</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5.7670000000000003</v>
@@ -741,16 +741,16 @@
         <v>5.6824000000000003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="2">
         <v>0.97250000000000003</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>5.7670000000000003</v>
@@ -793,16 +793,16 @@
         <v>5.4127999999999998</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2">
         <v>0.97130000000000005</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>5.7670000000000003</v>
@@ -845,16 +845,16 @@
         <v>5.1501999999999999</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="2">
         <v>0.96960000000000002</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>5.7670000000000003</v>
@@ -897,16 +897,16 @@
         <v>4.8944999999999999</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2">
         <v>0.96289999999999998</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>5.7670000000000003</v>
@@ -949,16 +949,16 @@
         <v>4.6452</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2">
         <v>0.95989999999999998</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>5.7670000000000003</v>
@@ -1001,16 +1001,16 @@
         <v>4.4021999999999997</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="2">
         <v>0.96399999999999997</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5.7670000000000003</v>
@@ -1053,16 +1053,16 @@
         <v>4.1651999999999996</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="2">
         <v>0.96530000000000005</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>5.7670000000000003</v>
@@ -1105,16 +1105,16 @@
         <v>3.9340000000000002</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="2">
         <v>0.96440000000000003</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>5.7670000000000003</v>
@@ -1157,16 +1157,16 @@
         <v>3.7084999999999999</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="2">
         <v>0.94899999999999995</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>5.7670000000000003</v>
@@ -1209,16 +1209,16 @@
         <v>3.4883000000000002</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="2">
         <v>0.96109999999999995</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>5.7670000000000003</v>
@@ -1261,16 +1261,16 @@
         <v>3.2734000000000001</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="2">
         <v>0.95620000000000005</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>5.7670000000000003</v>
@@ -1313,16 +1313,16 @@
         <v>3.0634999999999999</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="2">
         <v>0.94789999999999996</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>5.7670000000000003</v>
@@ -1365,16 +1365,16 @@
         <v>2.8584000000000001</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="2">
         <v>0.9345</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>5.7670000000000003</v>
@@ -1417,16 +1417,16 @@
         <v>2.6581000000000001</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="2">
         <v>0.93859999999999999</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>5.7670000000000003</v>
@@ -1469,16 +1469,16 @@
         <v>2.4622000000000002</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="2">
         <v>0.93930000000000002</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>5.7670000000000003</v>
@@ -1521,16 +1521,16 @@
         <v>2.2707000000000002</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="2">
         <v>0.9375</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>5.7670000000000003</v>
@@ -1573,16 +1573,16 @@
         <v>2.0834999999999999</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="2">
         <v>0.96</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>5.7670000000000003</v>
@@ -1625,16 +1625,16 @@
         <v>1.9003000000000001</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="2">
         <v>0.99039999999999995</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>5.7670000000000003</v>
@@ -1677,16 +1677,16 @@
         <v>1.7212000000000001</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" s="2">
         <v>1.0269999999999999</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>5.7670000000000003</v>
@@ -1729,16 +1729,16 @@
         <v>1.5458000000000001</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" s="2">
         <v>1.0629999999999999</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>5.7670000000000003</v>
@@ -1781,16 +1781,16 @@
         <v>1.3742000000000001</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="2">
         <v>1.0900000000000001</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>5.7670000000000003</v>
@@ -1833,16 +1833,16 @@
         <v>1.2060999999999999</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" s="2">
         <v>1.151</v>
